--- a/win_summary_long.xlsx
+++ b/win_summary_long.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ross.williams\OneDrive - Source Advisors\Documents\Salesforce Opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sourcehovtax-my.sharepoint.com/personal/ross_williams_sourceadvisors_com/Documents/Documents/Salesforce Opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F0DBB8-C776-48E9-BA79-3F548508A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{23F0DBB8-C776-48E9-BA79-3F548508A406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1AC3362-E9FA-44CD-AA30-D73032CB8B9A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -144,13 +144,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{B6F8BEA3-6DB9-4B21-A4AE-1436AC44DB39}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,7 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
